--- a/_._/_OLD/2024-1/BCC/_atcc1BCC_avaliadores.xlsx
+++ b/_._/_OLD/2024-1/BCC/_atcc1BCC_avaliadores.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aureliof\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C87D3DE-0EC2-46FA-BB3D-6021E0D246E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha 1 - Table 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha 1 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Nome</t>
   </si>
@@ -176,23 +185,39 @@
   </si>
   <si>
     <t>Estudo de Caso Aplicando a Extensão Espacial Postgis para PostgreSQL</t>
+  </si>
+  <si>
+    <t>Avaliador</t>
+  </si>
+  <si>
+    <t>Everaldo</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>Gilvan</t>
+  </si>
+  <si>
+    <t>Aurélio</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Cardoso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -200,16 +225,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -253,41 +275,9 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -302,10 +292,23 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -313,78 +316,46 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +363,7 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -405,27 +376,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="e588ccff"/>
+      <rgbColor rgb="E588CCFF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -624,7 +653,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -642,7 +671,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -696,7 +725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +900,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,9 +913,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -903,7 +938,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -921,7 +956,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +981,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1006,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1031,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1056,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1181,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,9 +1194,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1175,7 +1216,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1193,7 +1234,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1263,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1288,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1313,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1338,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1363,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1388,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1413,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1438,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1463,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,308 +1476,419 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.7656" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.3516" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="8.1" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="8" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="8.35" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="13.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="D1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="8.1" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="8.4499999999999993" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="12.9" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="12.9" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="10">
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="12.9" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="12.9" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="11">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" ht="12.9" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="12.9" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="10">
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="12.9" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="12.9" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s" s="11">
+      <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" ht="12.9" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="12.9" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" ht="12.9" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" ht="12.9" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="12.9" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s" s="11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" ht="12.9" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s" s="11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" ht="12.9" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s" s="11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" ht="12.9" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" ht="12.9" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s" s="10">
+      <c r="D25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s" s="11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" ht="12.9" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>54</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D25">
+    <sortCondition ref="D4:D25"/>
+  </sortState>
+  <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B12 B17:B25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Dalton"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/_._/_OLD/2024-1/BCC/_atcc1BCC_avaliadores.xlsx
+++ b/_._/_OLD/2024-1/BCC/_atcc1BCC_avaliadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aureliof\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonreis/GitHub/disciplinas/TCC1/TCC1_Privado/_._/_OLD/2024-1/BCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C87D3DE-0EC2-46FA-BB3D-6021E0D246E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E814FB-6A6B-754F-81D3-21C31519F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21280" yWindow="620" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1 - Table 1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1501,19 +1501,19 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="8.1" customHeight="1">
+    <row r="1" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1528,21 +1528,21 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="8.1" customHeight="1">
+    <row r="2" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="12"/>
       <c r="D2" s="15"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="8.4499999999999993" customHeight="1">
+    <row r="3" spans="1:5" ht="8.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="15"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
